--- a/output/fit_clients/fit_round_228.xlsx
+++ b/output/fit_clients/fit_round_228.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1728887654.723901</v>
+        <v>1643823725.59167</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1071854244764285</v>
+        <v>0.1113072475036665</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02888903867094453</v>
+        <v>0.03488074959155822</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>864443786.5213993</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1739504785.952498</v>
+        <v>2171587766.089801</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1614315010963122</v>
+        <v>0.1122746725558337</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04860475493454595</v>
+        <v>0.03165121270286621</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>869752392.6765633</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3216807182.277299</v>
+        <v>3686739198.545493</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1621537461665285</v>
+        <v>0.1103280968072381</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03731561046931224</v>
+        <v>0.03566879876898723</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>82</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1608403549.827618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3926802526.677933</v>
+        <v>3543280200.797112</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08736490698037759</v>
+        <v>0.0996765896772826</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04606596174581788</v>
+        <v>0.03824223898013425</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>89</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1963401271.834867</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1900315490.428115</v>
+        <v>2139282079.033788</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1190149152199141</v>
+        <v>0.1111504752170512</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0366971130478075</v>
+        <v>0.03902991293589442</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>38</v>
-      </c>
-      <c r="J6" t="n">
-        <v>950157785.5837481</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2719289238.179809</v>
+        <v>2253807483.722849</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06981054314599951</v>
+        <v>0.08492631407030646</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04226313585327295</v>
+        <v>0.04915987868855377</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>70</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1359644611.000128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3186914141.555851</v>
+        <v>3823183799.596917</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1841176932875447</v>
+        <v>0.1465961518550724</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02725397215690274</v>
+        <v>0.02027253425840576</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>73</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1593457147.388104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2299779890.52637</v>
+        <v>1831953172.956705</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1875022304157797</v>
+        <v>0.153189047136862</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02382906107857545</v>
+        <v>0.03492479119283261</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1149889930.256978</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4067382968.751403</v>
+        <v>4882440352.824637</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1898905453434496</v>
+        <v>0.1508301170507222</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03291573436809389</v>
+        <v>0.04474223668305226</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>96</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2033691511.467409</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3565282438.380264</v>
+        <v>4287253111.082344</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1594917698732608</v>
+        <v>0.1546427454290805</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03401854609826705</v>
+        <v>0.03190395655447016</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>94</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1782641201.51174</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3285583485.734224</v>
+        <v>3228718839.668262</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1770552944894374</v>
+        <v>0.1860004965131395</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03873325690300315</v>
+        <v>0.04813449353145938</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>79</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1642791787.016548</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4999519057.623524</v>
+        <v>4933102136.393003</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0660368447792698</v>
+        <v>0.0829240260143711</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02460717343891558</v>
+        <v>0.02051308678142683</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>76</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2499759532.962411</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3871294899.522856</v>
+        <v>2678560685.576159</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1472633826143391</v>
+        <v>0.1304537141031047</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03207473261838468</v>
+        <v>0.04266736587686778</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>73</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1935647421.094883</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1653999869.147304</v>
+        <v>1555550827.702192</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06636919155360228</v>
+        <v>0.09678091363220447</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03599545100371541</v>
+        <v>0.04599747278725436</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>827000054.9793609</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +878,16 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2814042153.753036</v>
+        <v>1837194944.693708</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0993734345066923</v>
+        <v>0.0970117461410899</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03231862861386777</v>
+        <v>0.04537898603811306</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>40</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1407021079.634002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4203038650.07268</v>
+        <v>3364427413.653754</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1747632998661033</v>
+        <v>0.1462543693450084</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04892375299254389</v>
+        <v>0.04942551854287303</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>66</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2101519349.597936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3064300371.923751</v>
+        <v>3482958175.136239</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1702499855825915</v>
+        <v>0.1493674219863864</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03425619955295577</v>
+        <v>0.02525061319079716</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>75</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1532150211.605059</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1335661367.859886</v>
+        <v>1203956667.993322</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1501911395588672</v>
+        <v>0.1445810265581302</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02006190138645822</v>
+        <v>0.02426350711082025</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>667830794.8465065</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1936464713.752358</v>
+        <v>2456491259.627897</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1106757682732278</v>
+        <v>0.1582388070020689</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02136458480018761</v>
+        <v>0.02503483848015519</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>35</v>
-      </c>
-      <c r="J20" t="n">
-        <v>968232389.9813483</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2602719351.43644</v>
+        <v>1941203050.240888</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08140393695683583</v>
+        <v>0.09762118452969736</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03114310690180671</v>
+        <v>0.03973871830987272</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>17</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1301359654.007042</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3615010720.933915</v>
+        <v>3961397341.576561</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09958357477231033</v>
+        <v>0.1386398350325196</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0529144747848245</v>
+        <v>0.05145477577263954</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>63</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1807505385.157937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1053988625.517254</v>
+        <v>1097771205.270463</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1149134280248218</v>
+        <v>0.1596401322959134</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0354725665635378</v>
+        <v>0.04231420214636913</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>526994373.8474582</v>
       </c>
     </row>
     <row r="24">
@@ -1244,22 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2836404583.059721</v>
+        <v>2896580937.809589</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1267821570397261</v>
+        <v>0.1369234722845086</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03591803344366418</v>
+        <v>0.02533952447321949</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>67</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1418202337.769052</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1439215819.724673</v>
+        <v>1476785727.354098</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1177632121418166</v>
+        <v>0.1172564858951552</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02489165550896467</v>
+        <v>0.01958204101626718</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>719607872.7792984</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1003822988.709754</v>
+        <v>1373500966.42994</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1068553752925868</v>
+        <v>0.1039565720316641</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02413208911864108</v>
+        <v>0.03748644251668208</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>501911467.4132417</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3449683610.029412</v>
+        <v>3695214915.047125</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1139975958765733</v>
+        <v>0.1450277952644505</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02421371428789209</v>
+        <v>0.02670450863517287</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>56</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1724841842.468117</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2994739119.986301</v>
+        <v>3325499875.257026</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1524214030653333</v>
+        <v>0.1523861526459046</v>
       </c>
       <c r="G28" t="n">
-        <v>0.05000467654665779</v>
+        <v>0.04479833270296171</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>74</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1497369570.734196</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3829305408.823709</v>
+        <v>3592090109.984446</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1225928959723104</v>
+        <v>0.1458142828343655</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03294323826336467</v>
+        <v>0.0308799735017658</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>101</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1914652733.121286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2350499118.125429</v>
+        <v>1741172952.541519</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1215278280951595</v>
+        <v>0.131730039203369</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02599821815954944</v>
+        <v>0.03554558498816954</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1175249636.460798</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1303557426.84967</v>
+        <v>938728802.8354856</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07588366589664079</v>
+        <v>0.104665548194446</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04773615724128501</v>
+        <v>0.03492548429605691</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>651778640.4987271</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1364292097.397053</v>
+        <v>1792795381.167636</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1102724498928544</v>
+        <v>0.09949959635865058</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0370731841609195</v>
+        <v>0.02624402133352274</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>682146088.9026289</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2129367435.351611</v>
+        <v>2833795653.740252</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1470709481628356</v>
+        <v>0.131043787707788</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04900989422507436</v>
+        <v>0.05202232861240282</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>67</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1064683787.437958</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1495568862.184002</v>
+        <v>1229141816.803746</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09155592983239882</v>
+        <v>0.1151109589673725</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02222608497594609</v>
+        <v>0.02403356040197181</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>747784387.643955</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1310452548.769681</v>
+        <v>1203835261.783474</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09393422982176348</v>
+        <v>0.0930705620693954</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02817914543916682</v>
+        <v>0.04294732953013539</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>655226224.8684297</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2199801311.526446</v>
+        <v>2359936214.791327</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1094562750522562</v>
+        <v>0.139186348757058</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01885442075648093</v>
+        <v>0.01767229903029621</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>58</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1099900701.775948</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1855784643.473478</v>
+        <v>2635863881.060167</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09171005116808192</v>
+        <v>0.08775411949459659</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03529707832401451</v>
+        <v>0.0382002294530106</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>60</v>
-      </c>
-      <c r="J37" t="n">
-        <v>927892329.1764342</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1350494505.016861</v>
+        <v>1746680571.210841</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09334861891830151</v>
+        <v>0.1105485922565172</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03168997904404122</v>
+        <v>0.02407586385733295</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>675247322.8686972</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1796823533.551399</v>
+        <v>1518151438.006688</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1359712501570896</v>
+        <v>0.1387673567835421</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03166480296033726</v>
+        <v>0.03247195575327201</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>898411792.1468953</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1557462346.559273</v>
+        <v>1457009468.988294</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1506037357737466</v>
+        <v>0.1620674718771157</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04068523783403492</v>
+        <v>0.03779603669603035</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>778731125.08444</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2315193979.582456</v>
+        <v>2826030661.605195</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1120780312045939</v>
+        <v>0.1098342268338371</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03249786734434048</v>
+        <v>0.03523492450858711</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>54</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1157597033.19343</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2878026060.769145</v>
+        <v>4003098570.446264</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09006606594570918</v>
+        <v>0.08822203409787495</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03622010329496826</v>
+        <v>0.03568994240982983</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>79</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1439012982.420126</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3039156518.547356</v>
+        <v>2852288415.224022</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1335248436792378</v>
+        <v>0.156111250046704</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02306700438615585</v>
+        <v>0.02301347136542873</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>79</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1519578253.720909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1924,22 +1662,16 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1923322384.682297</v>
+        <v>1932381523.395571</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0745465095521662</v>
+        <v>0.07618111015276911</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02728417843552339</v>
+        <v>0.02296759308806864</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>961661283.3625001</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1644427272.021541</v>
+        <v>2532340829.26259</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1628249008135257</v>
+        <v>0.1591605220637306</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04452245977090883</v>
+        <v>0.03956194983398306</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>822213591.0607398</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3659691150.19735</v>
+        <v>5363534016.842606</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1594322669692339</v>
+        <v>0.1571126551443585</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05218418226049184</v>
+        <v>0.04992058170650347</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>81</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1829845525.134257</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3780683581.289296</v>
+        <v>3731130447.933503</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1409013454755181</v>
+        <v>0.1772702436109333</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04039221274422219</v>
+        <v>0.05374353751723105</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>61</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1890341777.331333</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2959041978.548433</v>
+        <v>4319209207.744144</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09474471363166755</v>
+        <v>0.07981738104487689</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03636982008356566</v>
+        <v>0.03839011313051427</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>75</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1479521084.158112</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1328978393.942916</v>
+        <v>1403732154.218275</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1750716043280735</v>
+        <v>0.1605865754785607</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04078998266325702</v>
+        <v>0.04050789440352041</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>664489255.5659055</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3248582223.836487</v>
+        <v>4192863011.791865</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1767577751120098</v>
+        <v>0.1275797241181054</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05019707472718943</v>
+        <v>0.03818388408879314</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>78</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1624291154.039683</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1174643011.503956</v>
+        <v>1213575062.571141</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1793218768839272</v>
+        <v>0.180200147744926</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04184267227156701</v>
+        <v>0.0522451823936426</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>587321561.3870558</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4073784558.43108</v>
+        <v>4933422465.944296</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08554334450467659</v>
+        <v>0.09971518378311887</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05169457651670522</v>
+        <v>0.04069895472496864</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>94</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2036892331.339891</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3419433963.004393</v>
+        <v>2712144685.21729</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2005428722442517</v>
+        <v>0.1236700894277507</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03266748718295652</v>
+        <v>0.02468354096054745</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>65</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1709716984.969491</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4707111382.690722</v>
+        <v>4902846166.145548</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1163124428373259</v>
+        <v>0.1472359627233326</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04250494176837978</v>
+        <v>0.05288452800100409</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>75</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2353555810.917454</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3773614583.830332</v>
+        <v>3560955969.82914</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1514594382311769</v>
+        <v>0.2178539216966413</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02094077464226506</v>
+        <v>0.03247461985816473</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>59</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1886807256.847776</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1162372163.559608</v>
+        <v>1550901265.274769</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1085915154817021</v>
+        <v>0.1104351722012085</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04630330162689811</v>
+        <v>0.04222349238094768</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>581186174.0228337</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2890719718.652086</v>
+        <v>4354238598.055052</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1564492379881892</v>
+        <v>0.1271186260297383</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02738510191594196</v>
+        <v>0.02056443892038669</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>72</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1445359854.530405</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1861775135.641999</v>
+        <v>1152281604.972579</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1997202506792987</v>
+        <v>0.133206941453862</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0359825567311523</v>
+        <v>0.03348932138267836</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>930887565.9278978</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4383979832.01858</v>
+        <v>4281467302.195106</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1137834899051085</v>
+        <v>0.1265334799819215</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04325938368039815</v>
+        <v>0.04871583656139058</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>64</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2191989873.427941</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3660725882.527966</v>
+        <v>3413662891.901108</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1736133102837057</v>
+        <v>0.1437439680066021</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02567879074360011</v>
+        <v>0.02292802793386061</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>71</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1830363080.907175</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2383286461.430738</v>
+        <v>2657076685.843261</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1759771530861594</v>
+        <v>0.1422634069914776</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02068806827256229</v>
+        <v>0.02612101647736289</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>80</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1191643269.327234</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1842961818.467309</v>
+        <v>1699786271.060438</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1692446294512018</v>
+        <v>0.1779024515340004</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04487005827793084</v>
+        <v>0.03449188019877467</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>921480943.7448153</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4918951611.023374</v>
+        <v>4482728605.074782</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08641826861893058</v>
+        <v>0.0691077089414332</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03805822469535019</v>
+        <v>0.03404976826290853</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>66</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2459475826.893688</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3350305132.097992</v>
+        <v>5506098700.596754</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1540335984491942</v>
+        <v>0.1544497586614227</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03442740962396203</v>
+        <v>0.03189013139616106</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>71</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1675152556.202838</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5689103080.957825</v>
+        <v>5856783705.783845</v>
       </c>
       <c r="F65" t="n">
-        <v>0.123810557810678</v>
+        <v>0.1265250645564691</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02507055282597409</v>
+        <v>0.01979052572477987</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>83</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2844551458.24437</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5337530412.355452</v>
+        <v>3525134234.742754</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1074963726989265</v>
+        <v>0.1487294099559097</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04792235689489596</v>
+        <v>0.03648599600025875</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>66</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2668765251.447406</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2393854733.566101</v>
+        <v>3190283054.945048</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07248881340760915</v>
+        <v>0.09307694978290945</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03487226919879981</v>
+        <v>0.04499623817495042</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>73</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1196927436.354052</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>6072216910.025511</v>
+        <v>4934588560.826777</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1067587454067094</v>
+        <v>0.14448681562082</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03196211697492625</v>
+        <v>0.0365287641079218</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>74</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3036108576.359031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2116445625.191779</v>
+        <v>2207856369.964676</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1507516671404632</v>
+        <v>0.1830976355771323</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05797284962833497</v>
+        <v>0.05801961761142003</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1058222832.594996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3492854184.593002</v>
+        <v>3160652766.309905</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09009030660601185</v>
+        <v>0.1032035496767744</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03584921526639526</v>
+        <v>0.04751567440876028</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>64</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1746427101.328779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3953098727.99437</v>
+        <v>4326625172.287588</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1199512625275697</v>
+        <v>0.1280999818404694</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02830858349042524</v>
+        <v>0.03239794849835802</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>83</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1976549391.515056</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1371098937.034157</v>
+        <v>1982650905.767766</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07461955636847342</v>
+        <v>0.07100267050907687</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03914136380353173</v>
+        <v>0.04070998400014964</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>685549516.2915652</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3049347716.465208</v>
+        <v>2237443089.751653</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09881868173883072</v>
+        <v>0.06968213596639099</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04426404457031086</v>
+        <v>0.03543894135376716</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>90</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1524673849.664781</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2700900528.608905</v>
+        <v>3944466371.164615</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1668879494346956</v>
+        <v>0.1219234460147965</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02837186629664536</v>
+        <v>0.0233189717056677</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>78</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1350450355.513748</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2273040791.654779</v>
+        <v>2067150438.554588</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1421008182262407</v>
+        <v>0.1158229097995891</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03661497255406332</v>
+        <v>0.03459806042893544</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1136520334.353898</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4477513222.239285</v>
+        <v>5195537996.190243</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1174026527164501</v>
+        <v>0.1075080014684452</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02287961788552151</v>
+        <v>0.02263648406216347</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>51</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2238756615.815135</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2179028126.057528</v>
+        <v>2172562496.066164</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1505797511364986</v>
+        <v>0.1193545657250359</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02202919338147967</v>
+        <v>0.02973487094587237</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1089514150.941717</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3216715428.698145</v>
+        <v>3510735962.195458</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1087469887558497</v>
+        <v>0.1307327100463264</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03473926412797846</v>
+        <v>0.04125158644308349</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>79</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1608357736.092356</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1801248036.505413</v>
+        <v>1526813386.216858</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1497859226928051</v>
+        <v>0.1274121378982118</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03501992272160376</v>
+        <v>0.02763164835531579</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>900624105.1319073</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3715018079.37221</v>
+        <v>4830285374.403242</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08817089436980027</v>
+        <v>0.1090478470892368</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03577024780115128</v>
+        <v>0.03136176295690354</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>47</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1857509024.96401</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4141944026.778987</v>
+        <v>5011471518.686921</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08613763879243673</v>
+        <v>0.1124902225047857</v>
       </c>
       <c r="G81" t="n">
-        <v>0.027847661366543</v>
+        <v>0.02407076091840847</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>52</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2070971981.832457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3725789967.642262</v>
+        <v>5107768474.777618</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2011188947460093</v>
+        <v>0.2152548281679136</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01805775476823531</v>
+        <v>0.02447157520520268</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>83</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1862895038.887623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2451612588.249405</v>
+        <v>1968908884.337718</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1447128587534714</v>
+        <v>0.1194491129756039</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04299945797555378</v>
+        <v>0.03724869049642997</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
         <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1225806335.664952</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2283762433.490859</v>
+        <v>2022829368.42565</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09945662852877023</v>
+        <v>0.1015169787148411</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03417828500058262</v>
+        <v>0.05156444156139757</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1141881180.159602</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2835976127.899625</v>
+        <v>3541379444.141003</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1415435738930525</v>
+        <v>0.1462595386982155</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0436122525737746</v>
+        <v>0.03998699766641598</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>85</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1417988105.966131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1823382553.190926</v>
+        <v>2134306008.466181</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1518925564524073</v>
+        <v>0.1070273387359851</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02121110335401845</v>
+        <v>0.0255177726733434</v>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>29</v>
-      </c>
-      <c r="J86" t="n">
-        <v>911691279.6444236</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>909283903.6587992</v>
+        <v>1310592262.578746</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1237563644202815</v>
+        <v>0.1804725222278681</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04256276055871781</v>
+        <v>0.03594633564431326</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>454641932.88879</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2294675884.587884</v>
+        <v>3257056880.621772</v>
       </c>
       <c r="F88" t="n">
-        <v>0.177644842391919</v>
+        <v>0.1652980794190949</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03094176056412964</v>
+        <v>0.02735818207748445</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>90</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1147337903.020255</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2485137937.526208</v>
+        <v>2805872571.206369</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1032297436432278</v>
+        <v>0.1403627322253785</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03396599053199022</v>
+        <v>0.03893637403304038</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>77</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1242569044.590586</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2165069546.039748</v>
+        <v>1997922076.081442</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08966300453566789</v>
+        <v>0.1069296952213991</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04615298704673634</v>
+        <v>0.05480971765133905</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1082534873.494957</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1373370692.749441</v>
+        <v>2044268394.864553</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1572891301860481</v>
+        <v>0.189468025315157</v>
       </c>
       <c r="G91" t="n">
-        <v>0.03985460236644991</v>
+        <v>0.04218618725336862</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>686685402.1626189</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1848411166.037625</v>
+        <v>2822746825.741541</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1038236117649719</v>
+        <v>0.094344243250883</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04158482087646052</v>
+        <v>0.04179774508477687</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>58</v>
-      </c>
-      <c r="J92" t="n">
-        <v>924205517.7154839</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4623050665.786568</v>
+        <v>4474634773.85014</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1170299480447181</v>
+        <v>0.09962939382201753</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05315910375005303</v>
+        <v>0.03399075730092167</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>71</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2311525293.222794</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2139699143.043402</v>
+        <v>2498354058.869503</v>
       </c>
       <c r="F94" t="n">
-        <v>0.112851757894389</v>
+        <v>0.1429949809990492</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03585333869782944</v>
+        <v>0.03447166081240757</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1069849588.0179</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2247632230.706752</v>
+        <v>2331823396.395207</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1313271600601785</v>
+        <v>0.1215753648015814</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04548879603792227</v>
+        <v>0.03608697282437905</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>55</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1123816169.792539</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2254432924.40639</v>
+        <v>1722765632.696268</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1192504373854963</v>
+        <v>0.08830834851718737</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03292807346037667</v>
+        <v>0.03327622822377965</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1127216422.004486</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3768479759.67207</v>
+        <v>5039611986.095674</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1473492016687706</v>
+        <v>0.1184076191999894</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02656981492100653</v>
+        <v>0.02562265483084554</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>75</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1884239917.581846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3222003375.556233</v>
+        <v>3103240173.848534</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1136593054910684</v>
+        <v>0.0924461356644182</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03043199080878884</v>
+        <v>0.02950658140162456</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>61</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1611001687.508215</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2505849751.37764</v>
+        <v>3169199596.942907</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1003719473798279</v>
+        <v>0.09376071105197556</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02945098074873265</v>
+        <v>0.0257140544974078</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>72</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1252924825.813482</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4204563487.199448</v>
+        <v>4333940244.405329</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1796602652021756</v>
+        <v>0.1550598635266504</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02182479103647065</v>
+        <v>0.02692250587883322</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>71</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2102281830.597655</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2197736806.263443</v>
+        <v>3359619690.293747</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2071237364009695</v>
+        <v>0.2109824947593003</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05164064219341407</v>
+        <v>0.05421158363985114</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>93</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1098868386.126351</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_228.xlsx
+++ b/output/fit_clients/fit_round_228.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1643823725.59167</v>
+        <v>1959660618.225156</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1113072475036665</v>
+        <v>0.1075222661752767</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03488074959155822</v>
+        <v>0.04332167395254093</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2171587766.089801</v>
+        <v>2526810079.075555</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1122746725558337</v>
+        <v>0.1319130286058911</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03165121270286621</v>
+        <v>0.04023985718651336</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3686739198.545493</v>
+        <v>4742839887.78933</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1103280968072381</v>
+        <v>0.1199733623062823</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03566879876898723</v>
+        <v>0.03050387265310604</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,22 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3543280200.797112</v>
+        <v>3725140629.944252</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0996765896772826</v>
+        <v>0.108029547238197</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03824223898013425</v>
+        <v>0.04031953706375209</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2139282079.033788</v>
+        <v>2836035863.178699</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1111504752170512</v>
+        <v>0.1311843673007334</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03902991293589442</v>
+        <v>0.04105842161611616</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2253807483.722849</v>
+        <v>2900505207.301445</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08492631407030646</v>
+        <v>0.06934453677263744</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04915987868855377</v>
+        <v>0.04112715388627024</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3823183799.596917</v>
+        <v>2450578094.358404</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1465961518550724</v>
+        <v>0.1435005868664363</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02027253425840576</v>
+        <v>0.02386935866377183</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1831953172.956705</v>
+        <v>1600544889.288833</v>
       </c>
       <c r="F9" t="n">
-        <v>0.153189047136862</v>
+        <v>0.1935077412751517</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03492479119283261</v>
+        <v>0.02513126496170165</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4882440352.824637</v>
+        <v>5729105472.03239</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1508301170507222</v>
+        <v>0.1889209955557872</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04474223668305226</v>
+        <v>0.05343388208863278</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4287253111.082344</v>
+        <v>2614566839.12805</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1546427454290805</v>
+        <v>0.1354800417895557</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03190395655447016</v>
+        <v>0.03500198094436646</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3228718839.668262</v>
+        <v>2654326446.081122</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1860004965131395</v>
+        <v>0.1883688219334664</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04813449353145938</v>
+        <v>0.04266801806931071</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4933102136.393003</v>
+        <v>3262108743.453402</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0829240260143711</v>
+        <v>0.09268556132053075</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02051308678142683</v>
+        <v>0.02463639286003036</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2678560685.576159</v>
+        <v>3144719820.196014</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1304537141031047</v>
+        <v>0.1334138787965809</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04266736587686778</v>
+        <v>0.03107039956900531</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1555550827.702192</v>
+        <v>1841462618.575502</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09678091363220447</v>
+        <v>0.09295083581584056</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04599747278725436</v>
+        <v>0.04062821180666017</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1837194944.693708</v>
+        <v>2094813649.166575</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0970117461410899</v>
+        <v>0.08342064369099102</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04537898603811306</v>
+        <v>0.04133256642527905</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3364427413.653754</v>
+        <v>4756069651.489961</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1462543693450084</v>
+        <v>0.1362283965844917</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04942551854287303</v>
+        <v>0.03296366821392078</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3482958175.136239</v>
+        <v>2802567309.91724</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1493674219863864</v>
+        <v>0.1244176876630078</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02525061319079716</v>
+        <v>0.0225070624003252</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1203956667.993322</v>
+        <v>1324864049.507939</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1445810265581302</v>
+        <v>0.1367507718828792</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02426350711082025</v>
+        <v>0.01661607738838714</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2456491259.627897</v>
+        <v>2390222867.299303</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1582388070020689</v>
+        <v>0.1157558346313046</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02503483848015519</v>
+        <v>0.03070834283922782</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1941203050.240888</v>
+        <v>2494508739.92331</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09762118452969736</v>
+        <v>0.0664822325002573</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03973871830987272</v>
+        <v>0.04105430760988725</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3961397341.576561</v>
+        <v>3228003091.866228</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1386398350325196</v>
+        <v>0.1403217691384855</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05145477577263954</v>
+        <v>0.0565306595053436</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1097771205.270463</v>
+        <v>1535457118.405234</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1596401322959134</v>
+        <v>0.1470312774087595</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04231420214636913</v>
+        <v>0.03402435288743584</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2896580937.809589</v>
+        <v>3728076777.886989</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1369234722845086</v>
+        <v>0.1008817624327036</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02533952447321949</v>
+        <v>0.02263235323655572</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1476785727.354098</v>
+        <v>1182222089.55928</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1172564858951552</v>
+        <v>0.1187457216278789</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01958204101626718</v>
+        <v>0.02284617679522093</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1373500966.42994</v>
+        <v>1395565062.21797</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1039565720316641</v>
+        <v>0.1200089676561731</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03748644251668208</v>
+        <v>0.02497027028466195</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3695214915.047125</v>
+        <v>2919382573.401601</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1450277952644505</v>
+        <v>0.148571054042785</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02670450863517287</v>
+        <v>0.01786144069288281</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3325499875.257026</v>
+        <v>3025182849.916865</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1523861526459046</v>
+        <v>0.1014413181941161</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04479833270296171</v>
+        <v>0.03493638820332372</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3592090109.984446</v>
+        <v>5912483366.276879</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1458142828343655</v>
+        <v>0.09367264594324087</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0308799735017658</v>
+        <v>0.03833504007887006</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1741172952.541519</v>
+        <v>1450888059.240024</v>
       </c>
       <c r="F30" t="n">
-        <v>0.131730039203369</v>
+        <v>0.1311187034232132</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03554558498816954</v>
+        <v>0.0343987262650385</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>938728802.8354856</v>
+        <v>984405691.7761639</v>
       </c>
       <c r="F31" t="n">
-        <v>0.104665548194446</v>
+        <v>0.08759614554492942</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03492548429605691</v>
+        <v>0.04179963742528758</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1792795381.167636</v>
+        <v>1348861883.133165</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09949959635865058</v>
+        <v>0.1150864365803851</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02624402133352274</v>
+        <v>0.02340243449448005</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2833795653.740252</v>
+        <v>2410242932.020478</v>
       </c>
       <c r="F33" t="n">
-        <v>0.131043787707788</v>
+        <v>0.1747860300108109</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05202232861240282</v>
+        <v>0.04135266542196143</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1229141816.803746</v>
+        <v>1372541948.812862</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1151109589673725</v>
+        <v>0.1095565665767692</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02403356040197181</v>
+        <v>0.02062646842770661</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1410,13 +1410,13 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1203835261.783474</v>
+        <v>1108474548.746867</v>
       </c>
       <c r="F35" t="n">
-        <v>0.0930705620693954</v>
+        <v>0.07772625078738654</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04294732953013539</v>
+        <v>0.02783482846722807</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2359936214.791327</v>
+        <v>2306405875.601674</v>
       </c>
       <c r="F36" t="n">
-        <v>0.139186348757058</v>
+        <v>0.169773442134594</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01767229903029621</v>
+        <v>0.02626132924613463</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2635863881.060167</v>
+        <v>1870062263.312661</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08775411949459659</v>
+        <v>0.06880947627844081</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0382002294530106</v>
+        <v>0.04219542011211444</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1746680571.210841</v>
+        <v>1872706706.580613</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1105485922565172</v>
+        <v>0.09191635407389717</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02407586385733295</v>
+        <v>0.02917975609412666</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1518151438.006688</v>
+        <v>1905603155.261567</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1387673567835421</v>
+        <v>0.1907877260004992</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03247195575327201</v>
+        <v>0.02197362273245533</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,22 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1457009468.988294</v>
+        <v>1687907046.120096</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1620674718771157</v>
+        <v>0.09961656726045741</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03779603669603035</v>
+        <v>0.05252680701397072</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2826030661.605195</v>
+        <v>2396468206.303033</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1098342268338371</v>
+        <v>0.1193308407457799</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03523492450858711</v>
+        <v>0.03492811189911441</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4003098570.446264</v>
+        <v>2930077751.7593</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08822203409787495</v>
+        <v>0.07998116904071688</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03568994240982983</v>
+        <v>0.02815939225020741</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2852288415.224022</v>
+        <v>1973876697.904694</v>
       </c>
       <c r="F43" t="n">
-        <v>0.156111250046704</v>
+        <v>0.1791397309097577</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02301347136542873</v>
+        <v>0.01910437070261001</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1932381523.395571</v>
+        <v>2345136526.208106</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07618111015276911</v>
+        <v>0.08436773048050587</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02296759308806864</v>
+        <v>0.03097324063828877</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2532340829.26259</v>
+        <v>1664665935.819263</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1591605220637306</v>
+        <v>0.1309788081943913</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03956194983398306</v>
+        <v>0.04196949163340199</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5363534016.842606</v>
+        <v>5724667234.679914</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1571126551443585</v>
+        <v>0.1139555883955499</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04992058170650347</v>
+        <v>0.05532503516919768</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3731130447.933503</v>
+        <v>4989091108.675606</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1772702436109333</v>
+        <v>0.1575110004127079</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05374353751723105</v>
+        <v>0.05932805043767063</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4319209207.744144</v>
+        <v>4626130344.038107</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07981738104487689</v>
+        <v>0.08449630980224124</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03839011313051427</v>
+        <v>0.0348832042858156</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1403732154.218275</v>
+        <v>1542059037.031223</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1605865754785607</v>
+        <v>0.1741356892626583</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04050789440352041</v>
+        <v>0.03001185119042006</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4192863011.791865</v>
+        <v>3403534730.392349</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1275797241181054</v>
+        <v>0.136690475363625</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03818388408879314</v>
+        <v>0.03228111456842954</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1213575062.571141</v>
+        <v>963896922.5714399</v>
       </c>
       <c r="F51" t="n">
-        <v>0.180200147744926</v>
+        <v>0.1478201405684065</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0522451823936426</v>
+        <v>0.04028693414253146</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4933422465.944296</v>
+        <v>4477755002.252788</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09971518378311887</v>
+        <v>0.1163744497141313</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04069895472496864</v>
+        <v>0.05807838678785369</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2712144685.21729</v>
+        <v>3204125277.169819</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1236700894277507</v>
+        <v>0.201917316447346</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02468354096054745</v>
+        <v>0.02682265338952045</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4902846166.145548</v>
+        <v>3101025507.760689</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1472359627233326</v>
+        <v>0.140282112841325</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05288452800100409</v>
+        <v>0.03753000207180236</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,19 +1964,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3560955969.82914</v>
+        <v>4119264043.24713</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2178539216966413</v>
+        <v>0.2032173310437921</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03247461985816473</v>
+        <v>0.02039750125893134</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1550901265.274769</v>
+        <v>1773664610.238977</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1104351722012085</v>
+        <v>0.1447609415817727</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04222349238094768</v>
+        <v>0.05599921064755486</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4354238598.055052</v>
+        <v>3696721589.775579</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1271186260297383</v>
+        <v>0.118375662571782</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02056443892038669</v>
+        <v>0.02581340172395312</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1152281604.972579</v>
+        <v>1866078943.182384</v>
       </c>
       <c r="F58" t="n">
-        <v>0.133206941453862</v>
+        <v>0.145301187878276</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03348932138267836</v>
+        <v>0.03975454299978234</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2082,16 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4281467302.195106</v>
+        <v>4835626113.359954</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1265334799819215</v>
+        <v>0.1207656358485325</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04871583656139058</v>
+        <v>0.03445397083133911</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3413662891.901108</v>
+        <v>3734183751.039408</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1437439680066021</v>
+        <v>0.1741020686643281</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02292802793386061</v>
+        <v>0.02905433547203921</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2657076685.843261</v>
+        <v>2137567465.304793</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1422634069914776</v>
+        <v>0.1183495722948415</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02612101647736289</v>
+        <v>0.02088717896358398</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1699786271.060438</v>
+        <v>2017344095.528675</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1779024515340004</v>
+        <v>0.1802288271523355</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03449188019877467</v>
+        <v>0.04448725646948518</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2194,13 +2194,13 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4482728605.074782</v>
+        <v>4833214693.145022</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0691077089414332</v>
+        <v>0.09041014567031491</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03404976826290853</v>
+        <v>0.04300627448149728</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5506098700.596754</v>
+        <v>5178251985.64516</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1544497586614227</v>
+        <v>0.1294955912956648</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03189013139616106</v>
+        <v>0.02223755854451025</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,19 +2244,19 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5856783705.783845</v>
+        <v>3912602993.179827</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1265250645564691</v>
+        <v>0.1494113690429804</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01979052572477987</v>
+        <v>0.02230322672282898</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3525134234.742754</v>
+        <v>5069738940.07365</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1487294099559097</v>
+        <v>0.1126586482443971</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03648599600025875</v>
+        <v>0.05063712810739954</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3190283054.945048</v>
+        <v>2221469742.064995</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09307694978290945</v>
+        <v>0.08207165234033628</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04499623817495042</v>
+        <v>0.03407671819805903</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4934588560.826777</v>
+        <v>5626121940.953099</v>
       </c>
       <c r="F68" t="n">
-        <v>0.14448681562082</v>
+        <v>0.1287397366507709</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0365287641079218</v>
+        <v>0.03157580271956165</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2362,16 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2207856369.964676</v>
+        <v>2301852395.612749</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1830976355771323</v>
+        <v>0.1726434409375228</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05801961761142003</v>
+        <v>0.05539864653267304</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3160652766.309905</v>
+        <v>3687634210.538045</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1032035496767744</v>
+        <v>0.09654371872875787</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04751567440876028</v>
+        <v>0.03090772535433233</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4326625172.287588</v>
+        <v>3804667748.518256</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1280999818404694</v>
+        <v>0.1473189770311689</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03239794849835802</v>
+        <v>0.03119066508570452</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2446,13 +2446,13 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1982650905.767766</v>
+        <v>1866217469.257579</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07100267050907687</v>
+        <v>0.0848986817774372</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04070998400014964</v>
+        <v>0.04046898796015344</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2237443089.751653</v>
+        <v>3125440738.889736</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06968213596639099</v>
+        <v>0.08430045532419474</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03543894135376716</v>
+        <v>0.04967156756418558</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3944466371.164615</v>
+        <v>3823772331.944066</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1219234460147965</v>
+        <v>0.1140027686751432</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0233189717056677</v>
+        <v>0.033202214784437</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2067150438.554588</v>
+        <v>2024929090.26506</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1158229097995891</v>
+        <v>0.1263261863589765</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03459806042893544</v>
+        <v>0.02511260348931472</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5195537996.190243</v>
+        <v>5296513953.491165</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1075080014684452</v>
+        <v>0.1211834011420321</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02263648406216347</v>
+        <v>0.02808033573187192</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2172562496.066164</v>
+        <v>2255769105.60795</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1193545657250359</v>
+        <v>0.1237415142836288</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02973487094587237</v>
+        <v>0.03102764042272739</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3510735962.195458</v>
+        <v>4410227044.01266</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1307327100463264</v>
+        <v>0.1150507316430744</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04125158644308349</v>
+        <v>0.05721159694466368</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1526813386.216858</v>
+        <v>1866741530.862141</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1274121378982118</v>
+        <v>0.1067570329928252</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02763164835531579</v>
+        <v>0.02971055680705983</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4830285374.403242</v>
+        <v>4771491438.186378</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1090478470892368</v>
+        <v>0.07031075351705177</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03136176295690354</v>
+        <v>0.02960051570008117</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5011471518.686921</v>
+        <v>3554738586.419703</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1124902225047857</v>
+        <v>0.08458455584943173</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02407076091840847</v>
+        <v>0.0300873231910805</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5107768474.777618</v>
+        <v>4636581032.887888</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2152548281679136</v>
+        <v>0.1681973214071311</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02447157520520268</v>
+        <v>0.02919512433422443</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,16 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1968908884.337718</v>
+        <v>2160163772.986633</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1194491129756039</v>
+        <v>0.1414513186096411</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03724869049642997</v>
+        <v>0.02809595410718289</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2022829368.42565</v>
+        <v>2134076098.203833</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1015169787148411</v>
+        <v>0.1037390465196023</v>
       </c>
       <c r="G84" t="n">
-        <v>0.05156444156139757</v>
+        <v>0.04101504759291295</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3541379444.141003</v>
+        <v>2225457972.106557</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1462595386982155</v>
+        <v>0.1391396784678799</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03998699766641598</v>
+        <v>0.04072253253491311</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,22 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2134306008.466181</v>
+        <v>2610034589.341763</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1070273387359851</v>
+        <v>0.1306697470500099</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0255177726733434</v>
+        <v>0.01712347673901771</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,22 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1310592262.578746</v>
+        <v>945737273.2768716</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1804725222278681</v>
+        <v>0.1156115362429166</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03594633564431326</v>
+        <v>0.03286969321037479</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3257056880.621772</v>
+        <v>3002795365.859776</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1652980794190949</v>
+        <v>0.1399347208030336</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02735818207748445</v>
+        <v>0.03227066457678222</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2805872571.206369</v>
+        <v>3059831298.676555</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1403627322253785</v>
+        <v>0.1442324644180267</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03893637403304038</v>
+        <v>0.0406100908299178</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1997922076.081442</v>
+        <v>2165593771.758511</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1069296952213991</v>
+        <v>0.1003476570650013</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05480971765133905</v>
+        <v>0.03746515143076822</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2044268394.864553</v>
+        <v>1349671918.304326</v>
       </c>
       <c r="F91" t="n">
-        <v>0.189468025315157</v>
+        <v>0.1568005696119968</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04218618725336862</v>
+        <v>0.04098756214634253</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2822746825.741541</v>
+        <v>2489701968.610266</v>
       </c>
       <c r="F92" t="n">
-        <v>0.094344243250883</v>
+        <v>0.1058546177819902</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04179774508477687</v>
+        <v>0.04097501414759767</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4474634773.85014</v>
+        <v>3568199762.63024</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09962939382201753</v>
+        <v>0.09595618929452919</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03399075730092167</v>
+        <v>0.04748527748551611</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2498354058.869503</v>
+        <v>2284189180.202545</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1429949809990492</v>
+        <v>0.1395710635912022</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03447166081240757</v>
+        <v>0.04103095436391106</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2331823396.395207</v>
+        <v>3035800403.528208</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1215753648015814</v>
+        <v>0.1234433068976351</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03608697282437905</v>
+        <v>0.03226811763448947</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1722765632.696268</v>
+        <v>2241640515.060497</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08830834851718737</v>
+        <v>0.1406046953984761</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03327622822377965</v>
+        <v>0.02902347780543076</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5039611986.095674</v>
+        <v>4408017848.544582</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1184076191999894</v>
+        <v>0.1702076839235591</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02562265483084554</v>
+        <v>0.02670264394692743</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3103240173.848534</v>
+        <v>2521083622.583428</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0924461356644182</v>
+        <v>0.09194798397965812</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02950658140162456</v>
+        <v>0.02993670611588369</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3169199596.942907</v>
+        <v>3002409738.723479</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09376071105197556</v>
+        <v>0.09144338543326906</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0257140544974078</v>
+        <v>0.03123698263714171</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4333940244.405329</v>
+        <v>3719467147.609536</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1550598635266504</v>
+        <v>0.1537764901784424</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02692250587883322</v>
+        <v>0.02419262354372188</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3258,16 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3359619690.293747</v>
+        <v>3524271423.184767</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2109824947593003</v>
+        <v>0.2028189066309158</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05421158363985114</v>
+        <v>0.03811659977293464</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_228.xlsx
+++ b/output/fit_clients/fit_round_228.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1959660618.225156</v>
+        <v>1770396919.092841</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1075222661752767</v>
+        <v>0.07904430610238869</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04332167395254093</v>
+        <v>0.02929844510294691</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2526810079.075555</v>
+        <v>2630986744.473875</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1319130286058911</v>
+        <v>0.1129187303623007</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04023985718651336</v>
+        <v>0.04183054388192543</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4742839887.78933</v>
+        <v>4483273506.248703</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1199733623062823</v>
+        <v>0.1555679456295214</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03050387265310604</v>
+        <v>0.02759640810389833</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>124</v>
+      </c>
+      <c r="J4" t="n">
+        <v>227</v>
+      </c>
+      <c r="K4" t="n">
+        <v>107.4119641133422</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3725140629.944252</v>
+        <v>3662486154.929683</v>
       </c>
       <c r="F5" t="n">
-        <v>0.108029547238197</v>
+        <v>0.08669571424576736</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04031953706375209</v>
+        <v>0.03350922691253994</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>94</v>
+      </c>
+      <c r="J5" t="n">
+        <v>228</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2836035863.178699</v>
+        <v>2141136192.594355</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1311843673007334</v>
+        <v>0.1236180429674177</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04105842161611616</v>
+        <v>0.04357998252484628</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2900505207.301445</v>
+        <v>1948748868.798507</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06934453677263744</v>
+        <v>0.067214584480403</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04112715388627024</v>
+        <v>0.04227026023484105</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +707,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2450578094.358404</v>
+        <v>3413883922.274127</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1435005868664363</v>
+        <v>0.1512895718191601</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02386935866377183</v>
+        <v>0.02798148609434442</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>65</v>
+      </c>
+      <c r="J8" t="n">
+        <v>227</v>
+      </c>
+      <c r="K8" t="n">
+        <v>82.59532448385008</v>
       </c>
     </row>
     <row r="9">
@@ -682,17 +750,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1600544889.288833</v>
+        <v>2281343074.65903</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1935077412751517</v>
+        <v>0.1906189184228604</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02513126496170165</v>
+        <v>0.03097070708876988</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5729105472.03239</v>
+        <v>4934729603.647745</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1889209955557872</v>
+        <v>0.1981297582632547</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05343388208863278</v>
+        <v>0.04273753299040074</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>207</v>
+      </c>
+      <c r="J10" t="n">
+        <v>228</v>
+      </c>
+      <c r="K10" t="n">
+        <v>117.6521649564961</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +816,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2614566839.12805</v>
+        <v>3104746857.373211</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1354800417895557</v>
+        <v>0.1274883243849392</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03500198094436646</v>
+        <v>0.04527730477770703</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>94</v>
+      </c>
+      <c r="J11" t="n">
+        <v>223</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2654326446.081122</v>
+        <v>2158889186.432272</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1883688219334664</v>
+        <v>0.1395885019208712</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04266801806931071</v>
+        <v>0.03307648052013238</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +886,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3262108743.453402</v>
+        <v>4357402900.544654</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09268556132053075</v>
+        <v>0.08740208997674001</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02463639286003036</v>
+        <v>0.03120137390032218</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>115</v>
+      </c>
+      <c r="J13" t="n">
+        <v>228</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,22 +921,31 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3144719820.196014</v>
+        <v>3747593781.089531</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1334138787965809</v>
+        <v>0.1782957797186033</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03107039956900531</v>
+        <v>0.02801931488426854</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>44</v>
+      </c>
+      <c r="J14" t="n">
+        <v>227</v>
+      </c>
+      <c r="K14" t="n">
+        <v>102.4900721206303</v>
       </c>
     </row>
     <row r="15">
@@ -850,17 +964,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1841462618.575502</v>
+        <v>1259416253.295189</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09295083581584056</v>
+        <v>0.08701973168157651</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04062821180666017</v>
+        <v>0.04960034472714409</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2094813649.166575</v>
+        <v>1945327046.562784</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08342064369099102</v>
+        <v>0.1012927433034233</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04133256642527905</v>
+        <v>0.03329406384107476</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1028,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4756069651.489961</v>
+        <v>3659899429.972628</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1362283965844917</v>
+        <v>0.1485505830303312</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03296366821392078</v>
+        <v>0.0473772167074611</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>110</v>
+      </c>
+      <c r="J17" t="n">
+        <v>227</v>
+      </c>
+      <c r="K17" t="n">
+        <v>86.48758350959832</v>
       </c>
     </row>
     <row r="18">
@@ -934,17 +1071,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2802567309.91724</v>
+        <v>3340069358.211199</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1244176876630078</v>
+        <v>0.1136477563602335</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0225070624003252</v>
+        <v>0.02150190667301695</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>58</v>
+      </c>
+      <c r="J18" t="n">
+        <v>221</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1324864049.507939</v>
+        <v>1257780670.79928</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1367507718828792</v>
+        <v>0.1294071114176954</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01661607738838714</v>
+        <v>0.02492459581068949</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1141,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2390222867.299303</v>
+        <v>1693836544.993659</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1157558346313046</v>
+        <v>0.105216091957606</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03070834283922782</v>
+        <v>0.0247852051508269</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2494508739.92331</v>
+        <v>2621200472.719542</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0664822325002573</v>
+        <v>0.09991956740429736</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04105430760988725</v>
+        <v>0.03340058263458654</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1205,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3228003091.866228</v>
+        <v>3393026104.031766</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1403217691384855</v>
+        <v>0.1300056951555295</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0565306595053436</v>
+        <v>0.04258571819220916</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>57</v>
+      </c>
+      <c r="J22" t="n">
+        <v>228</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1535457118.405234</v>
+        <v>1157074420.366203</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1470312774087595</v>
+        <v>0.1849289509997924</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03402435288743584</v>
+        <v>0.04894512034776279</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1275,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3728076777.886989</v>
+        <v>3326839182.105361</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1008817624327036</v>
+        <v>0.1051139244748864</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02263235323655572</v>
+        <v>0.03239017488466545</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>70</v>
+      </c>
+      <c r="J24" t="n">
+        <v>220</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1316,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1182222089.55928</v>
+        <v>1033415330.371857</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1187457216278789</v>
+        <v>0.1041160833309374</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02284617679522093</v>
+        <v>0.01986910392710403</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1395565062.21797</v>
+        <v>1385486414.973735</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1200089676561731</v>
+        <v>0.1148175809560437</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02497027028466195</v>
+        <v>0.03345287554533593</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1380,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2919382573.401601</v>
+        <v>3631585880.172256</v>
       </c>
       <c r="F27" t="n">
-        <v>0.148571054042785</v>
+        <v>0.1449839483315818</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01786144069288281</v>
+        <v>0.01713806363233539</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>91</v>
+      </c>
+      <c r="J27" t="n">
+        <v>228</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3025182849.916865</v>
+        <v>3062876072.606884</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1014413181941161</v>
+        <v>0.116999316530501</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03493638820332372</v>
+        <v>0.03622621356516475</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>47</v>
+      </c>
+      <c r="J28" t="n">
+        <v>226</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1456,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5912483366.276879</v>
+        <v>4669165148.851029</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09367264594324087</v>
+        <v>0.09193216700274931</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03833504007887006</v>
+        <v>0.03312672272440575</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>217</v>
+      </c>
+      <c r="J29" t="n">
+        <v>228</v>
+      </c>
+      <c r="K29" t="n">
+        <v>121.4125818927244</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1450888059.240024</v>
+        <v>2242648429.590171</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1311187034232132</v>
+        <v>0.1362771860921707</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0343987262650385</v>
+        <v>0.02974005360986755</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1528,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>984405691.7761639</v>
+        <v>1107908312.285631</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08759614554492942</v>
+        <v>0.08750852814722722</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04179963742528758</v>
+        <v>0.03339506492564188</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1563,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1348861883.133165</v>
+        <v>1715137391.478676</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1150864365803851</v>
+        <v>0.08542448376377371</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02340243449448005</v>
+        <v>0.0337151950745613</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2410242932.020478</v>
+        <v>1930210536.565938</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1747860300108109</v>
+        <v>0.2031893956677301</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04135266542196143</v>
+        <v>0.05354300525882812</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1633,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1372541948.812862</v>
+        <v>1428208072.275395</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1095565665767692</v>
+        <v>0.08009444052075153</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02062646842770661</v>
+        <v>0.02411972161137596</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1108474548.746867</v>
+        <v>1030059776.21247</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07772625078738654</v>
+        <v>0.1075162254581418</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02783482846722807</v>
+        <v>0.03776361033295095</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2306405875.601674</v>
+        <v>2525747092.702072</v>
       </c>
       <c r="F36" t="n">
-        <v>0.169773442134594</v>
+        <v>0.1582567872787428</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02626132924613463</v>
+        <v>0.02644020208314293</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1738,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1870062263.312661</v>
+        <v>2392492374.819946</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06880947627844081</v>
+        <v>0.06930935935559243</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04219542011211444</v>
+        <v>0.03230104197400552</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1773,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1872706706.580613</v>
+        <v>2150035499.436879</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09191635407389717</v>
+        <v>0.1028606437462137</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02917975609412666</v>
+        <v>0.03015233292553396</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1905603155.261567</v>
+        <v>1585378665.205528</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1907877260004992</v>
+        <v>0.1582572520779159</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02197362273245533</v>
+        <v>0.02080700324289926</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1687907046.120096</v>
+        <v>1538417629.458853</v>
       </c>
       <c r="F40" t="n">
-        <v>0.09961656726045741</v>
+        <v>0.1448306687293715</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05252680701397072</v>
+        <v>0.05688932378941354</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2396468206.303033</v>
+        <v>1800470895.120683</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1193308407457799</v>
+        <v>0.1058607068235617</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03492811189911441</v>
+        <v>0.03993110058713711</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1907,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2930077751.7593</v>
+        <v>2911803237.742037</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07998116904071688</v>
+        <v>0.1052729250862292</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02815939225020741</v>
+        <v>0.0358689189998573</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>92</v>
+      </c>
+      <c r="J42" t="n">
+        <v>226</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1942,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1973876697.904694</v>
+        <v>2779755529.294392</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1791397309097577</v>
+        <v>0.1939016643593461</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01910437070261001</v>
+        <v>0.02465940530437493</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2345136526.208106</v>
+        <v>1891878557.199288</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08436773048050587</v>
+        <v>0.06226074036374663</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03097324063828877</v>
+        <v>0.03282468768039132</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1664665935.819263</v>
+        <v>2316711067.382172</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1309788081943913</v>
+        <v>0.1764929988322256</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04196949163340199</v>
+        <v>0.03803736515506045</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2047,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5724667234.679914</v>
+        <v>5609761199.909648</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1139555883955499</v>
+        <v>0.1431900682312356</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05532503516919768</v>
+        <v>0.04508670837401277</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>131</v>
+      </c>
+      <c r="J46" t="n">
+        <v>228</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1746,17 +2088,24 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4989091108.675606</v>
+        <v>3290166298.013934</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1575110004127079</v>
+        <v>0.2027587981984977</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05932805043767063</v>
+        <v>0.04018469056521277</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>102</v>
+      </c>
+      <c r="J47" t="n">
+        <v>226</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2117,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4626130344.038107</v>
+        <v>4484236265.698398</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08449630980224124</v>
+        <v>0.07468477526267668</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0348832042858156</v>
+        <v>0.03453563513166189</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>110</v>
+      </c>
+      <c r="J48" t="n">
+        <v>228</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2152,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1542059037.031223</v>
+        <v>1541649747.431564</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1741356892626583</v>
+        <v>0.1542805817102726</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03001185119042006</v>
+        <v>0.02804074423165263</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2187,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3403534730.392349</v>
+        <v>4201098256.529676</v>
       </c>
       <c r="F50" t="n">
-        <v>0.136690475363625</v>
+        <v>0.1554736611944274</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03228111456842954</v>
+        <v>0.04720798868768919</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>75</v>
+      </c>
+      <c r="J50" t="n">
+        <v>228</v>
+      </c>
+      <c r="K50" t="n">
+        <v>111.9939803829021</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2224,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>963896922.5714399</v>
+        <v>944419255.2285274</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1478201405684065</v>
+        <v>0.1927832282953193</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04028693414253146</v>
+        <v>0.04397908304291343</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2259,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4477755002.252788</v>
+        <v>3380912562.756396</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1163744497141313</v>
+        <v>0.09887226018575977</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05807838678785369</v>
+        <v>0.04375684504418561</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>151</v>
+      </c>
+      <c r="J52" t="n">
+        <v>227</v>
+      </c>
+      <c r="K52" t="n">
+        <v>78.46674381333153</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2296,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3204125277.169819</v>
+        <v>2862743986.108132</v>
       </c>
       <c r="F53" t="n">
-        <v>0.201917316447346</v>
+        <v>0.1832039416354794</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02682265338952045</v>
+        <v>0.02721640420909764</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>30</v>
+      </c>
+      <c r="J53" t="n">
+        <v>221</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2331,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3101025507.760689</v>
+        <v>4544328416.756523</v>
       </c>
       <c r="F54" t="n">
-        <v>0.140282112841325</v>
+        <v>0.1590122564079646</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03753000207180236</v>
+        <v>0.0368264444403605</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>122</v>
+      </c>
+      <c r="J54" t="n">
+        <v>227</v>
+      </c>
+      <c r="K54" t="n">
+        <v>111.4657221652969</v>
       </c>
     </row>
     <row r="55">
@@ -1970,17 +2374,24 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4119264043.24713</v>
+        <v>3186011381.850327</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2032173310437921</v>
+        <v>0.160835194643967</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02039750125893134</v>
+        <v>0.02360584020937634</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>102</v>
+      </c>
+      <c r="J55" t="n">
+        <v>226</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1773664610.238977</v>
+        <v>1288562584.496852</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1447609415817727</v>
+        <v>0.1336113857417927</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05599921064755486</v>
+        <v>0.04785649263146274</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2438,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3696721589.775579</v>
+        <v>3681904598.424425</v>
       </c>
       <c r="F57" t="n">
-        <v>0.118375662571782</v>
+        <v>0.1521990482345736</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02581340172395312</v>
+        <v>0.01673267860559595</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>89</v>
+      </c>
+      <c r="J57" t="n">
+        <v>228</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2473,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1866078943.182384</v>
+        <v>1609191569.854293</v>
       </c>
       <c r="F58" t="n">
-        <v>0.145301187878276</v>
+        <v>0.1938791459733432</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03975454299978234</v>
+        <v>0.03638188458647744</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,17 +2514,24 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4835626113.359954</v>
+        <v>4244845261.552343</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1207656358485325</v>
+        <v>0.1026565052624028</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03445397083133911</v>
+        <v>0.04530490611713482</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>110</v>
+      </c>
+      <c r="J59" t="n">
+        <v>228</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2543,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3734183751.039408</v>
+        <v>3008066365.952292</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1741020686643281</v>
+        <v>0.1976516419294519</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02905433547203921</v>
+        <v>0.02106756152739307</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>32</v>
+      </c>
+      <c r="J60" t="n">
+        <v>219</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2578,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2137567465.304793</v>
+        <v>2249140999.622441</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1183495722948415</v>
+        <v>0.1498465774745573</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02088717896358398</v>
+        <v>0.02291962005732119</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>6</v>
+      </c>
+      <c r="J61" t="n">
+        <v>188</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2613,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2017344095.528675</v>
+        <v>1557546338.00616</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1802288271523355</v>
+        <v>0.170423271059393</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04448725646948518</v>
+        <v>0.0440658505057392</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,16 +2654,25 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4833214693.145022</v>
+        <v>4540243290.118751</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09041014567031491</v>
+        <v>0.1004935610524054</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04300627448149728</v>
+        <v>0.04263377281360339</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>111</v>
+      </c>
+      <c r="J63" t="n">
+        <v>227</v>
+      </c>
+      <c r="K63" t="n">
+        <v>103.5547926829804</v>
       </c>
     </row>
     <row r="64">
@@ -2222,17 +2691,24 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5178251985.64516</v>
+        <v>3711535041.556505</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1294955912956648</v>
+        <v>0.1391512440125978</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02223755854451025</v>
+        <v>0.03355199962908145</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>112</v>
+      </c>
+      <c r="J64" t="n">
+        <v>228</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2244,22 +2720,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3912602993.179827</v>
+        <v>4075420298.925696</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1494113690429804</v>
+        <v>0.1070981969986747</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02230322672282898</v>
+        <v>0.03033347324715069</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>181</v>
+      </c>
+      <c r="J65" t="n">
+        <v>228</v>
+      </c>
+      <c r="K65" t="n">
+        <v>114.4149896037696</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2757,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5069738940.07365</v>
+        <v>5580512421.490352</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1126586482443971</v>
+        <v>0.1167439499890983</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05063712810739954</v>
+        <v>0.0367258348701659</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>112</v>
+      </c>
+      <c r="J66" t="n">
+        <v>228</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2792,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2221469742.064995</v>
+        <v>2678549225.763947</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08207165234033628</v>
+        <v>0.06725869814787468</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03407671819805903</v>
+        <v>0.03356857607719627</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>4</v>
+      </c>
+      <c r="J67" t="n">
+        <v>226</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2827,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5626121940.953099</v>
+        <v>5937768885.476529</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1287397366507709</v>
+        <v>0.1334199023389243</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03157580271956165</v>
+        <v>0.04162573730884581</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>115</v>
+      </c>
+      <c r="J68" t="n">
+        <v>227</v>
+      </c>
+      <c r="K68" t="n">
+        <v>111.0996882253606</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2864,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2301852395.612749</v>
+        <v>1946550014.662802</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1726434409375228</v>
+        <v>0.1706705680188401</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05539864653267304</v>
+        <v>0.04510830662734153</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,22 +2899,31 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3687634210.538045</v>
+        <v>2462375561.527888</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09654371872875787</v>
+        <v>0.08459145755284525</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03090772535433233</v>
+        <v>0.04419818491261466</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>35</v>
+      </c>
+      <c r="J70" t="n">
+        <v>227</v>
+      </c>
+      <c r="K70" t="n">
+        <v>38.79305776727738</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2936,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3804667748.518256</v>
+        <v>4725942870.167645</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1473189770311689</v>
+        <v>0.128309535182615</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03119066508570452</v>
+        <v>0.02753705241550865</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>174</v>
+      </c>
+      <c r="J71" t="n">
+        <v>227</v>
+      </c>
+      <c r="K71" t="n">
+        <v>111.4479659400618</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2979,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1866217469.257579</v>
+        <v>2159381379.346209</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0848986817774372</v>
+        <v>0.08146768667837892</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04046898796015344</v>
+        <v>0.03555312459130018</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3014,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3125440738.889736</v>
+        <v>2992175095.288823</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08430045532419474</v>
+        <v>0.0926107285421356</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04967156756418558</v>
+        <v>0.05055651555966512</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>12</v>
+      </c>
+      <c r="J73" t="n">
+        <v>208</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3043,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3823772331.944066</v>
+        <v>3271553115.605936</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1140027686751432</v>
+        <v>0.1351207887462166</v>
       </c>
       <c r="G74" t="n">
-        <v>0.033202214784437</v>
+        <v>0.03356275738937835</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>66</v>
+      </c>
+      <c r="J74" t="n">
+        <v>227</v>
+      </c>
+      <c r="K74" t="n">
+        <v>79.46933400690767</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2024929090.26506</v>
+        <v>2082082689.412625</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1263261863589765</v>
+        <v>0.1189050955167534</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02511260348931472</v>
+        <v>0.028559702171553</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3115,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5296513953.491165</v>
+        <v>5024911219.337672</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1211834011420321</v>
+        <v>0.08128020433192421</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02808033573187192</v>
+        <v>0.02218807795637896</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>105</v>
+      </c>
+      <c r="J76" t="n">
+        <v>228</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2255769105.60795</v>
+        <v>1790384788.460072</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1237415142836288</v>
+        <v>0.1560412143327356</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03102764042272739</v>
+        <v>0.02327469885657645</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3185,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4410227044.01266</v>
+        <v>3850969175.425001</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1150507316430744</v>
+        <v>0.1141646346456791</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05721159694466368</v>
+        <v>0.04686901201580246</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>114</v>
+      </c>
+      <c r="J78" t="n">
+        <v>228</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1866741530.862141</v>
+        <v>1364365607.508591</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1067570329928252</v>
+        <v>0.1710717819227283</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02971055680705983</v>
+        <v>0.0308713086770248</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3255,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4771491438.186378</v>
+        <v>3546925082.276628</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07031075351705177</v>
+        <v>0.07755397863922152</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02960051570008117</v>
+        <v>0.03686257440836885</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>111</v>
+      </c>
+      <c r="J80" t="n">
+        <v>227</v>
+      </c>
+      <c r="K80" t="n">
+        <v>65.38391414454303</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3292,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3554738586.419703</v>
+        <v>3962811291.815526</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08458455584943173</v>
+        <v>0.1141712607240267</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0300873231910805</v>
+        <v>0.02435081441171711</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>105</v>
+      </c>
+      <c r="J81" t="n">
+        <v>227</v>
+      </c>
+      <c r="K81" t="n">
+        <v>96.04367536941933</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4636581032.887888</v>
+        <v>5577066243.486607</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1681973214071311</v>
+        <v>0.1882210840900111</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02919512433422443</v>
+        <v>0.02377266385971717</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>170</v>
+      </c>
+      <c r="J82" t="n">
+        <v>228</v>
+      </c>
+      <c r="K82" t="n">
+        <v>115.2040610328526</v>
       </c>
     </row>
     <row r="83">
@@ -2754,17 +3372,24 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2160163772.986633</v>
+        <v>2300400617.845343</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1414513186096411</v>
+        <v>0.1542442509997901</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02809595410718289</v>
+        <v>0.04284077154220244</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2134076098.203833</v>
+        <v>1969198983.134398</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1037390465196023</v>
+        <v>0.119940189544364</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04101504759291295</v>
+        <v>0.03392198542071286</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2810,17 +3442,24 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2225457972.106557</v>
+        <v>3250245363.938134</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1391396784678799</v>
+        <v>0.1390570373131958</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04072253253491311</v>
+        <v>0.04500956150398756</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>31</v>
+      </c>
+      <c r="J85" t="n">
+        <v>225</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2610034589.341763</v>
+        <v>1783978952.878948</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1306697470500099</v>
+        <v>0.1713258876145149</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01712347673901771</v>
+        <v>0.02300271715181791</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>945737273.2768716</v>
+        <v>1237507597.841126</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1156115362429166</v>
+        <v>0.156793754167245</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03286969321037479</v>
+        <v>0.04060433212367321</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,22 +3541,31 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3002795365.859776</v>
+        <v>3105699030.242872</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1399347208030336</v>
+        <v>0.1288884425500362</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03227066457678222</v>
+        <v>0.02917516546882625</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>32</v>
+      </c>
+      <c r="J88" t="n">
+        <v>227</v>
+      </c>
+      <c r="K88" t="n">
+        <v>72.29885170932802</v>
       </c>
     </row>
     <row r="89">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3059831298.676555</v>
+        <v>3270678114.97114</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1442324644180267</v>
+        <v>0.1262653335875997</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0406100908299178</v>
+        <v>0.03196029960254956</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>17</v>
+      </c>
+      <c r="J89" t="n">
+        <v>225</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2165593771.758511</v>
+        <v>1370516178.181056</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1003476570650013</v>
+        <v>0.1074126280590013</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03746515143076822</v>
+        <v>0.03988386816273455</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3654,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1349671918.304326</v>
+        <v>1399351343.972797</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1568005696119968</v>
+        <v>0.188116326724428</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04098756214634253</v>
+        <v>0.04194360607705274</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3689,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2489701968.610266</v>
+        <v>2490020764.919837</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1058546177819902</v>
+        <v>0.07387926096357932</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04097501414759767</v>
+        <v>0.03950582008450453</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3718,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3568199762.63024</v>
+        <v>3546273935.981815</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09595618929452919</v>
+        <v>0.1167516097933216</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04748527748551611</v>
+        <v>0.03883057116279409</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>101</v>
+      </c>
+      <c r="J93" t="n">
+        <v>228</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2284189180.202545</v>
+        <v>2294615019.072614</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1395710635912022</v>
+        <v>0.1098802160703932</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04103095436391106</v>
+        <v>0.03250040783456366</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3035800403.528208</v>
+        <v>3107311901.680988</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1234433068976351</v>
+        <v>0.11681019428359</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03226811763448947</v>
+        <v>0.03782362472738573</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2241640515.060497</v>
+        <v>1990922237.529596</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1406046953984761</v>
+        <v>0.1327156423823702</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02902347780543076</v>
+        <v>0.03548324837634589</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,17 +3864,24 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4408017848.544582</v>
+        <v>3858987280.795559</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1702076839235591</v>
+        <v>0.1125189268911021</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02670264394692743</v>
+        <v>0.02186402688288694</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>110</v>
+      </c>
+      <c r="J97" t="n">
+        <v>228</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,22 +3893,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2521083622.583428</v>
+        <v>2935438114.611682</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09194798397965812</v>
+        <v>0.1207337979572167</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02993670611588369</v>
+        <v>0.02626752174551435</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>55</v>
+      </c>
+      <c r="J98" t="n">
+        <v>227</v>
+      </c>
+      <c r="K98" t="n">
+        <v>55.87346043014122</v>
       </c>
     </row>
     <row r="99">
@@ -3202,17 +3936,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3002409738.723479</v>
+        <v>2498055113.210183</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09144338543326906</v>
+        <v>0.1269235684842111</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03123698263714171</v>
+        <v>0.03555236483942935</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>3</v>
+      </c>
+      <c r="J99" t="n">
+        <v>211</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3719467147.609536</v>
+        <v>4379923382.245532</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1537764901784424</v>
+        <v>0.1370233497940594</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02419262354372188</v>
+        <v>0.02159797894869793</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>95</v>
+      </c>
+      <c r="J100" t="n">
+        <v>228</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3524271423.184767</v>
+        <v>3230448150.486617</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2028189066309158</v>
+        <v>0.1622162246975248</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03811659977293464</v>
+        <v>0.04070312293475872</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
